--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2002,28 +2002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.4119573572937</v>
+        <v>236.5701586250152</v>
       </c>
       <c r="AB2" t="n">
-        <v>281.0537021921047</v>
+        <v>323.6857277694051</v>
       </c>
       <c r="AC2" t="n">
-        <v>254.2303313163212</v>
+        <v>292.7936162069615</v>
       </c>
       <c r="AD2" t="n">
-        <v>205411.9573572938</v>
+        <v>236570.1586250152</v>
       </c>
       <c r="AE2" t="n">
-        <v>281053.7021921047</v>
+        <v>323685.7277694051</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.328779196063874e-06</v>
+        <v>5.627466392323932e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.087239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>254230.3313163212</v>
+        <v>292793.6162069615</v>
       </c>
     </row>
     <row r="3">
@@ -2108,28 +2108,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.3477770582092</v>
+        <v>133.420547962808</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.0367438362352</v>
+        <v>182.5518798217897</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.6718335473469</v>
+        <v>165.1293846248218</v>
       </c>
       <c r="AD3" t="n">
-        <v>102347.7770582092</v>
+        <v>133420.547962808</v>
       </c>
       <c r="AE3" t="n">
-        <v>140036.7438362352</v>
+        <v>182551.8798217897</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.073416899977978e-06</v>
+        <v>8.576862993085859e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.993055555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>126671.8335473469</v>
+        <v>165129.3846248218</v>
       </c>
     </row>
     <row r="4">
@@ -2214,28 +2214,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>88.20715313343194</v>
+        <v>109.0361215425933</v>
       </c>
       <c r="AB4" t="n">
-        <v>120.6889183420655</v>
+        <v>149.1880318286987</v>
       </c>
       <c r="AC4" t="n">
-        <v>109.1705373634911</v>
+        <v>134.949735457726</v>
       </c>
       <c r="AD4" t="n">
-        <v>88207.15313343194</v>
+        <v>109036.1215425933</v>
       </c>
       <c r="AE4" t="n">
-        <v>120688.9183420655</v>
+        <v>149188.0318286987</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.717362433740986e-06</v>
+        <v>9.665484868043312e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.543836805555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>109170.5373634911</v>
+        <v>134949.735457726</v>
       </c>
     </row>
     <row r="5">
@@ -2320,28 +2320,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>84.78072908491578</v>
+        <v>105.439105293485</v>
       </c>
       <c r="AB5" t="n">
-        <v>116.0007337957276</v>
+        <v>144.2664355075139</v>
       </c>
       <c r="AC5" t="n">
-        <v>104.9297865703458</v>
+        <v>130.4978493819297</v>
       </c>
       <c r="AD5" t="n">
-        <v>84780.72908491577</v>
+        <v>105439.105293485</v>
       </c>
       <c r="AE5" t="n">
-        <v>116000.7337957276</v>
+        <v>144266.4355075139</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.882246849084683e-06</v>
+        <v>9.944230153120139e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.444010416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>104929.7865703458</v>
+        <v>130497.8493819297</v>
       </c>
     </row>
   </sheetData>
@@ -2617,28 +2617,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.1503710808299</v>
+        <v>170.3315962771009</v>
       </c>
       <c r="AB2" t="n">
-        <v>205.4423618795614</v>
+        <v>233.0552045259048</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.8352312020005</v>
+        <v>210.8127429010536</v>
       </c>
       <c r="AD2" t="n">
-        <v>150150.3710808299</v>
+        <v>170331.5962771009</v>
       </c>
       <c r="AE2" t="n">
-        <v>205442.3618795614</v>
+        <v>233055.2045259048</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.077661647283844e-06</v>
+        <v>7.061657772324863e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.141059027777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>185835.2312020005</v>
+        <v>210812.7429010536</v>
       </c>
     </row>
     <row r="3">
@@ -2723,28 +2723,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.14341236043369</v>
+        <v>106.3245480481537</v>
       </c>
       <c r="AB3" t="n">
-        <v>117.8652171706335</v>
+        <v>145.4779373474284</v>
       </c>
       <c r="AC3" t="n">
-        <v>106.6163262687702</v>
+        <v>131.5937271865967</v>
       </c>
       <c r="AD3" t="n">
-        <v>86143.41236043369</v>
+        <v>106324.5480481537</v>
       </c>
       <c r="AE3" t="n">
-        <v>117865.2171706335</v>
+        <v>145477.9373474284</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.719234847275228e-06</v>
+        <v>9.90451947819519e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.665364583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>106616.3262687701</v>
+        <v>131593.7271865967</v>
       </c>
     </row>
     <row r="4">
@@ -2829,28 +2829,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>80.33698952082125</v>
+        <v>100.347533007949</v>
       </c>
       <c r="AB4" t="n">
-        <v>109.920613280183</v>
+        <v>137.2999216821311</v>
       </c>
       <c r="AC4" t="n">
-        <v>99.42994422330014</v>
+        <v>124.1962098584757</v>
       </c>
       <c r="AD4" t="n">
-        <v>80336.98952082125</v>
+        <v>100347.533007949</v>
       </c>
       <c r="AE4" t="n">
-        <v>109920.613280183</v>
+        <v>137299.9216821311</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.047819927668889e-06</v>
+        <v>1.047356016561404e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.465711805555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>99429.94422330015</v>
+        <v>124196.2098584757</v>
       </c>
     </row>
   </sheetData>
@@ -3126,28 +3126,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.74185224961828</v>
+        <v>88.97258347504876</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.79212315814884</v>
+        <v>121.7362139038685</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.55441877255711</v>
+        <v>110.1178805067645</v>
       </c>
       <c r="AD2" t="n">
-        <v>70741.85224961827</v>
+        <v>88972.58347504877</v>
       </c>
       <c r="AE2" t="n">
-        <v>96792.12315814884</v>
+        <v>121736.2139038685</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.152162813672909e-06</v>
+        <v>1.164121592565962e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.802083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>87554.41877255711</v>
+        <v>110117.8805067645</v>
       </c>
     </row>
   </sheetData>
@@ -3423,28 +3423,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.91025888755591</v>
+        <v>111.81826909948</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.1239151212369</v>
+        <v>152.9946888557168</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.9913870816351</v>
+        <v>138.3930904807635</v>
       </c>
       <c r="AD2" t="n">
-        <v>92910.25888755592</v>
+        <v>111818.26909948</v>
       </c>
       <c r="AE2" t="n">
-        <v>127123.9151212369</v>
+        <v>152994.6888557168</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.585026016151646e-06</v>
+        <v>1.017470447463154e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.006076388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>114991.3870816351</v>
+        <v>138393.0904807635</v>
       </c>
     </row>
     <row r="3">
@@ -3529,28 +3529,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.66433663520932</v>
+        <v>92.657598193154</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.7907952254241</v>
+        <v>126.7782136125533</v>
       </c>
       <c r="AC3" t="n">
-        <v>91.1714631899044</v>
+        <v>114.678678839745</v>
       </c>
       <c r="AD3" t="n">
-        <v>73664.33663520933</v>
+        <v>92657.598193154</v>
       </c>
       <c r="AE3" t="n">
-        <v>100790.7952254241</v>
+        <v>126778.2136125533</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.213042436628305e-06</v>
+        <v>1.131881400341201e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.602430555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>91171.4631899044</v>
+        <v>114678.678839745</v>
       </c>
     </row>
   </sheetData>
@@ -3826,28 +3826,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.41907105535411</v>
+        <v>95.93911964346793</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.2964326231412</v>
+        <v>131.2681360313795</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.05621168510481</v>
+        <v>118.7400893645656</v>
       </c>
       <c r="AD2" t="n">
-        <v>78419.07105535411</v>
+        <v>95939.11964346793</v>
       </c>
       <c r="AE2" t="n">
-        <v>107296.4326231412</v>
+        <v>131268.1360313795</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.944488444483941e-06</v>
+        <v>1.164928203423166e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.086371527777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>97056.21168510482</v>
+        <v>118740.0893645656</v>
       </c>
     </row>
   </sheetData>
@@ -4123,28 +4123,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.5603362371559</v>
+        <v>189.9168635066115</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.3174913448039</v>
+        <v>259.8526311903169</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.481576381442</v>
+        <v>235.0526607750473</v>
       </c>
       <c r="AD2" t="n">
-        <v>159560.3362371559</v>
+        <v>189916.8635066115</v>
       </c>
       <c r="AE2" t="n">
-        <v>218317.4913448039</v>
+        <v>259852.6311903169</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.885107305861959e-06</v>
+        <v>6.684254108037904e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.347222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>197481.576381442</v>
+        <v>235052.6607750473</v>
       </c>
     </row>
     <row r="3">
@@ -4229,28 +4229,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.98667059692974</v>
+        <v>110.3380835769616</v>
       </c>
       <c r="AB3" t="n">
-        <v>123.1237326423917</v>
+        <v>150.9694337226317</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.3729764042783</v>
+        <v>136.5611228551159</v>
       </c>
       <c r="AD3" t="n">
-        <v>89986.67059692975</v>
+        <v>110338.0835769616</v>
       </c>
       <c r="AE3" t="n">
-        <v>123123.7326423917</v>
+        <v>150969.4337226317</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.553571802362975e-06</v>
+        <v>9.554815919297326e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.741319444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>111372.9764042783</v>
+        <v>136561.1228551159</v>
       </c>
     </row>
     <row r="4">
@@ -4335,28 +4335,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>81.47813803244613</v>
+        <v>101.6589588118858</v>
       </c>
       <c r="AB4" t="n">
-        <v>111.4819830177066</v>
+        <v>139.0942723230997</v>
       </c>
       <c r="AC4" t="n">
-        <v>100.8422990244712</v>
+        <v>125.8193101926577</v>
       </c>
       <c r="AD4" t="n">
-        <v>81478.13803244612</v>
+        <v>101658.9588118858</v>
       </c>
       <c r="AE4" t="n">
-        <v>111481.9830177066</v>
+        <v>139094.2723230997</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.002490308965567e-06</v>
+        <v>1.032717177351147e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.461371527777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>100842.2990244712</v>
+        <v>125819.3101926577</v>
       </c>
     </row>
   </sheetData>
@@ -4632,28 +4632,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.09048191769243</v>
+        <v>95.24018153751418</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.846842468663</v>
+        <v>130.3118180798411</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.64952978396619</v>
+        <v>117.875041056121</v>
       </c>
       <c r="AD2" t="n">
-        <v>78090.48191769244</v>
+        <v>95240.18153751417</v>
       </c>
       <c r="AE2" t="n">
-        <v>106846.842468663</v>
+        <v>130311.818079841</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.723789924568971e-06</v>
+        <v>1.147425486580081e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.342447916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>96649.52978396619</v>
+        <v>117875.041056121</v>
       </c>
     </row>
   </sheetData>
@@ -4929,28 +4929,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.4946445768864</v>
+        <v>134.2084889200876</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.6566238572552</v>
+        <v>183.6299754010408</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.7055355453143</v>
+        <v>166.1045882751062</v>
       </c>
       <c r="AD2" t="n">
-        <v>114494.6445768864</v>
+        <v>134208.4889200876</v>
       </c>
       <c r="AE2" t="n">
-        <v>156656.6238572552</v>
+        <v>183629.9754010407</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.752857607820524e-06</v>
+        <v>8.417663993564517e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.544270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>141705.5355453143</v>
+        <v>166104.5882751062</v>
       </c>
     </row>
     <row r="3">
@@ -5035,28 +5035,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.34040100503974</v>
+        <v>96.96890449366937</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.8205486727377</v>
+        <v>132.6771330943257</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.72118402751127</v>
+        <v>120.0146137253644</v>
       </c>
       <c r="AD3" t="n">
-        <v>77340.40100503973</v>
+        <v>96968.90449366937</v>
       </c>
       <c r="AE3" t="n">
-        <v>105820.5486727377</v>
+        <v>132677.1330943257</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.11429989195596e-06</v>
+        <v>1.082887944332386e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.532986111111112</v>
       </c>
       <c r="AH3" t="n">
-        <v>95721.18402751128</v>
+        <v>120014.6137253644</v>
       </c>
     </row>
     <row r="4">
@@ -5141,28 +5141,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>77.2044480979563</v>
+        <v>96.83295158658595</v>
       </c>
       <c r="AB4" t="n">
-        <v>105.6345319074473</v>
+        <v>132.4911163290353</v>
       </c>
       <c r="AC4" t="n">
-        <v>95.55292044122397</v>
+        <v>119.8463501390771</v>
       </c>
       <c r="AD4" t="n">
-        <v>77204.44809795631</v>
+        <v>96832.95158658594</v>
       </c>
       <c r="AE4" t="n">
-        <v>105634.5319074473</v>
+        <v>132491.1163290353</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.140372392390394e-06</v>
+        <v>1.087505577895992e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.517795138888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>95552.92044122398</v>
+        <v>119846.3501390771</v>
       </c>
     </row>
   </sheetData>
@@ -5438,28 +5438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.2366812561455</v>
+        <v>161.1579154830504</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.5638170483361</v>
+        <v>220.5033697492578</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.4264983686932</v>
+        <v>199.4588376188751</v>
       </c>
       <c r="AD2" t="n">
-        <v>131236.6812561455</v>
+        <v>161157.9154830504</v>
       </c>
       <c r="AE2" t="n">
-        <v>179563.8170483361</v>
+        <v>220503.3697492578</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.280198425880951e-06</v>
+        <v>7.464292311215337e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.943576388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>162426.4983686932</v>
+        <v>199458.8376188751</v>
       </c>
     </row>
     <row r="3">
@@ -5544,28 +5544,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.43163733432645</v>
+        <v>102.4360207219775</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.786602827959</v>
+        <v>140.1574827100386</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.0224077510789</v>
+        <v>126.7810492724926</v>
       </c>
       <c r="AD3" t="n">
-        <v>82431.63733432646</v>
+        <v>102436.0207219775</v>
       </c>
       <c r="AE3" t="n">
-        <v>112786.602827959</v>
+        <v>140157.4827100385</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.887832296351705e-06</v>
+        <v>1.026786540400586e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.59375</v>
       </c>
       <c r="AH3" t="n">
-        <v>102022.4077510789</v>
+        <v>126781.0492724926</v>
       </c>
     </row>
     <row r="4">
@@ -5650,28 +5650,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.53299719415669</v>
+        <v>99.36678838121549</v>
       </c>
       <c r="AB4" t="n">
-        <v>108.820555509203</v>
+        <v>135.9580236164356</v>
       </c>
       <c r="AC4" t="n">
-        <v>98.43487442204129</v>
+        <v>122.982380660804</v>
       </c>
       <c r="AD4" t="n">
-        <v>79532.99719415669</v>
+        <v>99366.78838121549</v>
       </c>
       <c r="AE4" t="n">
-        <v>108820.555509203</v>
+        <v>135958.0236164356</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.056415445432487e-06</v>
+        <v>1.05618596954563e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.493923611111112</v>
       </c>
       <c r="AH4" t="n">
-        <v>98434.87442204129</v>
+        <v>122982.380660804</v>
       </c>
     </row>
   </sheetData>
@@ -5947,28 +5947,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>182.5260713608657</v>
+        <v>213.5383473324134</v>
       </c>
       <c r="AB2" t="n">
-        <v>249.7402233177752</v>
+        <v>292.172587467081</v>
       </c>
       <c r="AC2" t="n">
-        <v>225.9053669170042</v>
+        <v>264.2880457861109</v>
       </c>
       <c r="AD2" t="n">
-        <v>182526.0713608657</v>
+        <v>213538.3473324134</v>
       </c>
       <c r="AE2" t="n">
-        <v>249740.2233177751</v>
+        <v>292172.587467081</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.49862865681153e-06</v>
+        <v>5.947436840141588e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.837673611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>225905.3669170042</v>
+        <v>264288.0457861109</v>
       </c>
     </row>
     <row r="3">
@@ -6053,28 +6053,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.68169976340816</v>
+        <v>119.3565504111066</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.0206551455754</v>
+        <v>163.3088979117793</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.1344733211975</v>
+        <v>147.7229259006019</v>
       </c>
       <c r="AD3" t="n">
-        <v>98681.69976340816</v>
+        <v>119356.5504111066</v>
       </c>
       <c r="AE3" t="n">
-        <v>135020.6551455754</v>
+        <v>163308.8979117793</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.210156854599681e-06</v>
+        <v>8.856921342490343e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.919270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>122134.4733211975</v>
+        <v>147722.9259006019</v>
       </c>
     </row>
     <row r="4">
@@ -6159,28 +6159,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>84.9690878832223</v>
+        <v>105.4733463303285</v>
       </c>
       <c r="AB4" t="n">
-        <v>116.2584546133741</v>
+        <v>144.3132856047312</v>
       </c>
       <c r="AC4" t="n">
-        <v>105.1629108748697</v>
+        <v>130.5402281716231</v>
       </c>
       <c r="AD4" t="n">
-        <v>84969.0878832223</v>
+        <v>105473.3463303285</v>
       </c>
       <c r="AE4" t="n">
-        <v>116258.4546133741</v>
+        <v>144313.2856047312</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.855579728262451e-06</v>
+        <v>9.954097451426213e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.487413194444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>105162.9108748697</v>
+        <v>130540.2281716231</v>
       </c>
     </row>
     <row r="5">
@@ -6265,28 +6265,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>84.22146936320327</v>
+        <v>104.7257278103095</v>
       </c>
       <c r="AB5" t="n">
-        <v>115.2355299716833</v>
+        <v>143.2903609630404</v>
       </c>
       <c r="AC5" t="n">
-        <v>104.2376127252978</v>
+        <v>129.6149300220512</v>
       </c>
       <c r="AD5" t="n">
-        <v>84221.46936320327</v>
+        <v>104725.7278103095</v>
       </c>
       <c r="AE5" t="n">
-        <v>115235.5299716833</v>
+        <v>143290.3609630404</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.898118535333839e-06</v>
+        <v>1.002641060412948e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.463541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>104237.6127252978</v>
+        <v>129614.9300220512</v>
       </c>
     </row>
   </sheetData>
@@ -6562,28 +6562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.97114427652753</v>
+        <v>119.1021856528147</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.7849300147016</v>
+        <v>162.9608648277033</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.7303682729901</v>
+        <v>147.4081086056026</v>
       </c>
       <c r="AD2" t="n">
-        <v>99971.14427652753</v>
+        <v>119102.1856528147</v>
       </c>
       <c r="AE2" t="n">
-        <v>136784.9300147016</v>
+        <v>162960.8648277033</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.276268648822691e-06</v>
+        <v>9.514360949736812e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.188368055555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>123730.3682729901</v>
+        <v>147408.1086056026</v>
       </c>
     </row>
     <row r="3">
@@ -6668,28 +6668,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.78957878291639</v>
+        <v>94.00587150522411</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.3304011740961</v>
+        <v>128.6229806397471</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.56413130768615</v>
+        <v>116.3473838910109</v>
       </c>
       <c r="AD3" t="n">
-        <v>74789.57878291639</v>
+        <v>94005.8715052241</v>
       </c>
       <c r="AE3" t="n">
-        <v>102330.4011740961</v>
+        <v>128622.9806397472</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.192707499273331e-06</v>
+        <v>1.116691706313616e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.567708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>92564.13130768616</v>
+        <v>116347.3838910109</v>
       </c>
     </row>
   </sheetData>
@@ -6965,28 +6965,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.45585377412129</v>
+        <v>90.95929477307355</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.13729566038324</v>
+        <v>124.4545199493413</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.67577130264927</v>
+        <v>112.5767552384247</v>
       </c>
       <c r="AD2" t="n">
-        <v>72455.85377412129</v>
+        <v>90959.29477307355</v>
       </c>
       <c r="AE2" t="n">
-        <v>99137.29566038324</v>
+        <v>124454.5199493413</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.131302572215193e-06</v>
+        <v>1.143905077341254e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.754340277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>89675.77130264927</v>
+        <v>112576.7552384247</v>
       </c>
     </row>
     <row r="3">
@@ -7071,28 +7071,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.84384361110659</v>
+        <v>90.34728461005885</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.29991635536412</v>
+        <v>123.6171406443222</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.91831030323168</v>
+        <v>111.8192942390071</v>
       </c>
       <c r="AD3" t="n">
-        <v>71843.8436111066</v>
+        <v>90347.28461005885</v>
       </c>
       <c r="AE3" t="n">
-        <v>98299.91635536411</v>
+        <v>123617.1406443222</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.201512779663714e-06</v>
+        <v>1.157004057832854e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.7109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>88918.31030323167</v>
+        <v>111819.2942390071</v>
       </c>
     </row>
   </sheetData>
@@ -11917,28 +11917,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.94981860247188</v>
+        <v>87.88346389545704</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.70842778006525</v>
+        <v>120.2460324465071</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.57414976038146</v>
+        <v>108.7699198762104</v>
       </c>
       <c r="AD2" t="n">
-        <v>69949.81860247187</v>
+        <v>87883.46389545704</v>
       </c>
       <c r="AE2" t="n">
-        <v>95708.42778006525</v>
+        <v>120246.0324465071</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.082862334173663e-06</v>
+        <v>1.169756984309679e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.914930555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>86574.14976038146</v>
+        <v>108769.9198762104</v>
       </c>
     </row>
   </sheetData>
@@ -12214,28 +12214,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.54616507724378</v>
+        <v>103.6670244729797</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.4703282708831</v>
+        <v>141.8417963502116</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.21351097629037</v>
+        <v>128.3046143827972</v>
       </c>
       <c r="AD2" t="n">
-        <v>78546.16507724379</v>
+        <v>103667.0244729797</v>
       </c>
       <c r="AE2" t="n">
-        <v>107470.3282708831</v>
+        <v>141841.7963502116</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.330264072425925e-06</v>
+        <v>1.099419905846992e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.793836805555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>97213.51097629036</v>
+        <v>128304.6143827972</v>
       </c>
     </row>
   </sheetData>
@@ -12511,28 +12511,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.0845216479696</v>
+        <v>151.7298587039597</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.0414285076504</v>
+        <v>207.6034865276026</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.0992290150439</v>
+        <v>187.7901011467907</v>
       </c>
       <c r="AD2" t="n">
-        <v>122084.5216479696</v>
+        <v>151729.8587039597</v>
       </c>
       <c r="AE2" t="n">
-        <v>167041.4285076504</v>
+        <v>207603.4865276026</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.523524013903626e-06</v>
+        <v>7.947653249467874e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.724392361111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>151099.2290150439</v>
+        <v>187790.1011467907</v>
       </c>
     </row>
     <row r="3">
@@ -12617,28 +12617,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.12107446227637</v>
+        <v>98.94152640265087</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.2569446546963</v>
+        <v>135.3761614161294</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.92505379645573</v>
+        <v>122.4560505722461</v>
       </c>
       <c r="AD3" t="n">
-        <v>79121.07446227637</v>
+        <v>98941.52640265087</v>
       </c>
       <c r="AE3" t="n">
-        <v>108256.9446546963</v>
+        <v>135376.1614161294</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.04095041055631e-06</v>
+        <v>1.061371156929046e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.537326388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>97925.05379645573</v>
+        <v>122456.0505722461</v>
       </c>
     </row>
     <row r="4">
@@ -12723,28 +12723,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>78.14023110137288</v>
+        <v>97.79009084115518</v>
       </c>
       <c r="AB4" t="n">
-        <v>106.9149114965537</v>
+        <v>133.80071648314</v>
       </c>
       <c r="AC4" t="n">
-        <v>96.71110239937046</v>
+        <v>121.0309638925098</v>
       </c>
       <c r="AD4" t="n">
-        <v>78140.23110137288</v>
+        <v>97790.09084115518</v>
       </c>
       <c r="AE4" t="n">
-        <v>106914.9114965537</v>
+        <v>133800.71648314</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.114217023516891e-06</v>
+        <v>1.074243811805729e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.49609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>96711.10239937046</v>
+        <v>121030.9638925098</v>
       </c>
     </row>
   </sheetData>
@@ -13020,28 +13020,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.1343965935724</v>
+        <v>201.9081169108187</v>
       </c>
       <c r="AB2" t="n">
-        <v>234.1536313359509</v>
+        <v>276.259593114709</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.806337398001</v>
+        <v>249.8937652806964</v>
       </c>
       <c r="AD2" t="n">
-        <v>171134.3965935724</v>
+        <v>201908.1169108187</v>
       </c>
       <c r="AE2" t="n">
-        <v>234153.6313359509</v>
+        <v>276259.593114709</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.677094673304775e-06</v>
+        <v>6.28742210711221e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.601128472222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>211806.337398001</v>
+        <v>249893.7652806964</v>
       </c>
     </row>
     <row r="3">
@@ -13126,28 +13126,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.44715222952186</v>
+        <v>114.9629657743527</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.2267603946626</v>
+        <v>157.2974015805014</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.8935397535276</v>
+        <v>142.2851583419912</v>
       </c>
       <c r="AD3" t="n">
-        <v>94447.15222952186</v>
+        <v>114962.9657743527</v>
       </c>
       <c r="AE3" t="n">
-        <v>129226.7603946626</v>
+        <v>157297.4015805014</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.370120198258464e-06</v>
+        <v>9.182307079962839e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.834635416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>116893.5397535276</v>
+        <v>142285.1583419912</v>
       </c>
     </row>
     <row r="4">
@@ -13232,28 +13232,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.93583315293803</v>
+        <v>103.2810544971767</v>
       </c>
       <c r="AB4" t="n">
-        <v>113.4764657905327</v>
+        <v>141.3136952015246</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.6464311607335</v>
+        <v>127.8269144665461</v>
       </c>
       <c r="AD4" t="n">
-        <v>82935.83315293804</v>
+        <v>103281.0544971767</v>
       </c>
       <c r="AE4" t="n">
-        <v>113476.4657905327</v>
+        <v>141313.6952015246</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.938257848496551e-06</v>
+        <v>1.015375914724924e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.467881944444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>102646.4311607335</v>
+        <v>127826.9144665461</v>
       </c>
     </row>
     <row r="5">
@@ -13338,28 +13338,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>83.00662860596385</v>
+        <v>103.3518499502025</v>
       </c>
       <c r="AB5" t="n">
-        <v>113.5733312526375</v>
+        <v>141.4105606636294</v>
       </c>
       <c r="AC5" t="n">
-        <v>102.7340519190866</v>
+        <v>127.9145352248992</v>
       </c>
       <c r="AD5" t="n">
-        <v>83006.62860596385</v>
+        <v>103351.8499502025</v>
       </c>
       <c r="AE5" t="n">
-        <v>113573.3312526375</v>
+        <v>141410.5606636294</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.935505887271079e-06</v>
+        <v>1.014905360023883e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.470052083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>102734.0519190866</v>
+        <v>127914.5352248992</v>
       </c>
     </row>
   </sheetData>
@@ -13635,28 +13635,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.51505294642463</v>
+        <v>113.928838346666</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.4784445666687</v>
+        <v>155.882462811459</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.7892737168345</v>
+        <v>141.0052593431867</v>
       </c>
       <c r="AD2" t="n">
-        <v>89515.05294642464</v>
+        <v>113928.838346666</v>
       </c>
       <c r="AE2" t="n">
-        <v>122478.4445666687</v>
+        <v>155882.462811459</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.573408233373712e-06</v>
+        <v>9.802920312328333e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.785590277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>110789.2737168345</v>
+        <v>141005.2593431867</v>
       </c>
     </row>
   </sheetData>
@@ -13932,28 +13932,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.60041672436118</v>
+        <v>95.35690467451973</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.8080695341114</v>
+        <v>130.4715238253533</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.80533447685174</v>
+        <v>118.01950470943</v>
       </c>
       <c r="AD2" t="n">
-        <v>76600.41672436119</v>
+        <v>95356.90467451973</v>
       </c>
       <c r="AE2" t="n">
-        <v>104808.0695341114</v>
+        <v>130471.5238253533</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.926970764451837e-06</v>
+        <v>1.092004377103645e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.825954861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>94805.33447685174</v>
+        <v>118019.50470943</v>
       </c>
     </row>
     <row r="3">
@@ -14038,28 +14038,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.99215711840485</v>
+        <v>91.74864506856339</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.87108955606533</v>
+        <v>125.5345438473072</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.33953293881389</v>
+        <v>113.5537031713922</v>
       </c>
       <c r="AD3" t="n">
-        <v>72992.15711840485</v>
+        <v>91748.64506856339</v>
       </c>
       <c r="AE3" t="n">
-        <v>99871.08955606533</v>
+        <v>125534.5438473072</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.192430829372357e-06</v>
+        <v>1.140913603141684e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.663194444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>90339.53293881389</v>
+        <v>113553.7031713922</v>
       </c>
     </row>
   </sheetData>
@@ -14335,28 +14335,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.3239318703175</v>
+        <v>125.6662090061014</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.4770942657291</v>
+        <v>171.9420511639383</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.5929645674316</v>
+        <v>155.5321431230843</v>
       </c>
       <c r="AD2" t="n">
-        <v>106323.9318703175</v>
+        <v>125666.2090061014</v>
       </c>
       <c r="AE2" t="n">
-        <v>145477.0942657291</v>
+        <v>171942.0511639382</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.034344775166499e-06</v>
+        <v>8.99348954300944e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.338107638888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>131592.9645674315</v>
+        <v>155532.1431230843</v>
       </c>
     </row>
     <row r="3">
@@ -14441,28 +14441,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.03210402339509</v>
+        <v>95.45963250519958</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.0304790244631</v>
+        <v>130.6120805753215</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.10195611408891</v>
+        <v>118.1466469204539</v>
       </c>
       <c r="AD3" t="n">
-        <v>76032.10402339509</v>
+        <v>95459.63250519958</v>
       </c>
       <c r="AE3" t="n">
-        <v>104030.4790244631</v>
+        <v>130612.0805753215</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.158599935322705e-06</v>
+        <v>1.100188934041999e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.546006944444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>94101.95611408891</v>
+        <v>118146.6469204539</v>
       </c>
     </row>
   </sheetData>
